--- a/FacebookCrawl/DulieuCrawl.xlsx
+++ b/FacebookCrawl/DulieuCrawl.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,48 +482,127 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>274155036910484</t>
+          <t>862907429190562</t>
         </is>
       </c>
       <c r="B2" s="5" t="n">
-        <v>43908.99097222222</v>
+        <v>45418.64722222222</v>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>Các đạo hữu xa gần muốn ủng hộ tác giả động lực viết truyện/bạo chương thì đây ạ: Số TK: 1809205083252 NGUYEN PHUOC HAU Ngân hàng Agribank ạ. Momo: 0942973261 Viettelpay: 9704229212704295 Chân thành cảm ơn...</t>
+          <t>⚡️DELL VOSTRO 5510 CORE I5-11300H/8GB/NVME 512GB 15.6"  👍ZIN 100% , Ngoại hình đẹp như mới  💰Giá Chỉ : 9.7tr Full phụ kiện  👉7️⃣2️⃣ nguyễn đức trung-đn ☎️0️⃣8️⃣4️⃣3️⃣3️⃣6️⃣4️⃣7️⃣8️⃣9️⃣ ✈️✈️Hỗ trợ ship code</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/274155036910484</t>
+          <t>https://www.facebook.com/862907429190562</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>http://www.facebook.com/photo.php?fbid=838270153321485&amp;id=100014155246102&amp;set=gm.274155036910484&amp;eav=AfbjfI7XEQGFA1DFzhf1JlFIkDAy-kgbXCYRSGlHC3Y-ixD3mhJSkSQpwHaFDCZAn6I&amp;paipv=0&amp;refid=18&amp;__tn__=EH-R</t>
+          <t>http://www.facebook.com/photo.php?fbid=862907362523902&amp;id=100064139375825&amp;set=pcb.862907429190562&amp;eav=AfZ_-gxftnwOw11WgilGyX7wYpiP6URfyBy9OWTeFTo-jid5R_XBjF_wNi1Xun08f-I&amp;paipv=0&amp;source=48&amp;refid=52&amp;__tn__=EH-R</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>1184790652513580</t>
+          <t>862904705857501</t>
         </is>
       </c>
       <c r="B3" s="5" t="n">
-        <v>45399.43695601852</v>
+        <v>45418.64375</v>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>#ThảoLuận Theo mình đoán thì sau này vị Sư bá sẽ cưỡng ép thu Nam làm đệ tử hoặc thiên tử, thành lập Vạn cổ đạo thống theo ý Nam. Lí do Nam đồng ý chắc là đã hồi sinh Quỳnh Tiêu và bảo kê Kỳ Nam, Thiên Ý. Bắt đầu lên 1 Map mới cao cấp hơn để solo với các Boss trâu hơn. Mục tiêu lúc này khả năng là để Kim Nhi làm người thật và giải mã về Hệ Thống. Ngoài lề: Mình thấy "Sự mĩ lệ của những vụ nổ" ngầu đẹp vãi chưởng mà không được dùng nữa🥲</t>
+          <t>⚡️LENOVO GAMING 3 15ARH7 RYZEN5-7535HS/8GB/NVME 512GB VGA RTX2050 NEW SEAL 👍NEW   100% Chưa active   💰Giá Chỉ : 15.5tr Full phụ kiện  👉7️⃣2️⃣ nguyễn đức trung-đn ☎️0️⃣8️⃣4️⃣3️⃣3️⃣6️⃣4️⃣7️⃣8️⃣9️⃣ ✈️✈️Hỗ trợ ship code</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1184790652513580</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr"/>
+          <t>https://www.facebook.com/862904705857501</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>http://www.facebook.com/photo.php?fbid=862904642524174&amp;id=100064139375825&amp;set=pcb.862904705857501&amp;eav=AfYEvIQd25RLNlwioSXxzR5bo_n4FK9Qbe7I61Xmkni5ZF0jFYiVsh96805nhAMhkYE&amp;paipv=0&amp;source=48&amp;refid=52&amp;__tn__=EH-R</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>862903132524325</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>45418.64097222222</v>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>⚡️ACER NITRO 5-AN515 -45 RYZEN 5-5600H/8GB/NVME 512GB /15.6" 144HZ  👍Zin  100% ,  ngoại hình đẹp 💰Giá Chỉ : 12.5tr Full phụ kiện  👉7️⃣2️⃣ nguyễn đức trung-đn ☎️0️⃣8️⃣4️⃣3️⃣3️⃣6️⃣4️⃣7️⃣8️⃣9️⃣ ✈️✈️Hỗ trợ ship code</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/862903132524325</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>http://www.facebook.com/photo.php?fbid=862903035857668&amp;id=100064139375825&amp;set=pcb.862903132524325&amp;eav=AfYcmfLH_v39vcJaucCl9rn17N5qdCZyUbmdFQ0mm3ldH3Yrj_8Q0dw6avakrB8XRIk&amp;paipv=0&amp;source=48&amp;refid=52&amp;__tn__=EH-R</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>827589566055682</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>45365.37013888889</v>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>⚡️ACER NITRO 5-AN515 CORE I5 -11400H/8/512/1650/144HZ  👍Zin  100% ,  ngoại hình đẹp 💰Giá Chỉ : 11.9tr Full phụ kiện  👉7️⃣2️⃣ nguyễn đức trung-đn ☎️0️⃣8️⃣4️⃣3️⃣3️⃣6️⃣4️⃣7️⃣8️⃣9️⃣ ✈️✈️Hỗ trợ ship code</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/827589566055682</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>http://www.facebook.com/photo.php?fbid=827589396055699&amp;id=100064139375825&amp;set=pcb.827589566055682&amp;eav=AfYEFXbOtTSpyrVk3y-q2LqAUutO6-E4mGHAaluiHqWBnge_sNjatjlHQ1McYix3HnE&amp;paipv=0&amp;source=48&amp;refid=52&amp;__tn__=EH-R</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>827008982780407</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>45364.34305555555</v>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>⭕️⭕️Bộ vi xử lý Intel Core i5 thế hệ thứ 10 Ice Lake mới nhất kết hợp cùng card đồ họa rời tạo nên sức mạnh bất ngờ cho chiếc laptop nhỏ gọn Dell Inspiron N5593. ⚡️DELL INSPIRON 5593 CORE I5-1035G1/8GB/NVME 256GB /HDD500GB VGA MX230 ✍️Bộ xử lý: Core i5 -1035G1 8cpu 👉RAM:  8gb ddr4 2666mhz 👉HDD: ssd nvme 256gb pcle+ 500gb 👆Màn hình : 15.6” FHD 1920*1080 🤙Đồ họa : Vga nvidia Geforce MX230 👌Bảo hành 06th .Giá 7.9tr  Full phụ kiện ———————————————— 💗 BẢO TRÂN LAPTOP 💗 🍀 72 Nguyễn Đức Trung - Thanh Khê - Đà Nẵng ☎ 0️⃣8️⃣4️⃣3️⃣3️⃣6️⃣4️⃣7️⃣8️⃣9️⃣ 🛒 👍 Bảo Hành Và Bao Test 7 Ngày ❤️ Hỗ Trợ Trả Góp ✈✈️✈️ Ship COD Toàn Quốc ——💋 𝓜𝓪𝓷𝔂 𝓣𝓱𝓪𝓷𝓴𝓼 💋——</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/827008982780407</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>http://www.facebook.com/photo.php?fbid=827008849447087&amp;id=100064139375825&amp;set=pcb.827008982780407&amp;eav=AfaBugQlV9F_DG1w6XRiI5T9wXrHYH-kcSQXvfINHCtVJu_b8_lxExSKtdU25lxn2Yk&amp;paipv=0&amp;source=48&amp;refid=52&amp;__tn__=EH-R</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
